--- a/map.xlsx
+++ b/map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmierung\RobotikinSachsen\RobotikinSachsenMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129DA922-03EC-4D8D-BB25-9EF267E754FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCF1EFE-CB27-4993-B09A-EAA19D8AB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1153">
   <si>
     <t>Name</t>
   </si>
@@ -2970,6 +2970,679 @@
   </si>
   <si>
     <t>flask</t>
+  </si>
+  <si>
+    <t>Actemium</t>
+  </si>
+  <si>
+    <t>Entwurfs- und Ausführungsplanung bis hin zu Installation und Instandhaltung von Industrieanlagen.</t>
+  </si>
+  <si>
+    <t>Entwurfs- und Ausführungsplanung bis hin zu Installation und Instandhaltung von Industrieanlagen. 
+&lt;a href="https://www.actemium.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01139 Dresden</t>
+  </si>
+  <si>
+    <t>Washington Straße 16</t>
+  </si>
+  <si>
+    <t>Washington Straße 16 01139 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.actemium.de/</t>
+  </si>
+  <si>
+    <t>51.0758533,13.6894319</t>
+  </si>
+  <si>
+    <t>ANYBRID GmbH</t>
+  </si>
+  <si>
+    <t>Start-up: Innovative Spritzgieß-Anlagentechnik mit Roboter.</t>
+  </si>
+  <si>
+    <t>Start-up: Innovative Spritzgieß-Anlagentechnik mit Roboter. 
+&lt;a href="https://www.linkedin.com/company/anybrid/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Marschnerstraße 39</t>
+  </si>
+  <si>
+    <t>Marschnerstraße 39 01307 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/anybrid/</t>
+  </si>
+  <si>
+    <t>51.0516238,13.7594285</t>
+  </si>
+  <si>
+    <t>CampusGenius GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausgründung aus der TU-Dresden das transportable Sendestationen für 5G-Netze entwickelt. </t>
+  </si>
+  <si>
+    <t>Ausgründung aus der TU-Dresden das transportable Sendestationen für 5G-Netze entwickelt.  
+&lt;a href="https://campusgenius.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Tieckstraße 5</t>
+  </si>
+  <si>
+    <t>Tieckstraße 5 01099 Dresden</t>
+  </si>
+  <si>
+    <t>https://campusgenius.com/</t>
+  </si>
+  <si>
+    <t>51.0612489,13.7513821</t>
+  </si>
+  <si>
+    <t>CEP Anlagenautomatisierung GmbH</t>
+  </si>
+  <si>
+    <t>Steuerung, Regelung und Automatisierung von Prozessen im Bereich des Maschinen- und Anlagenbaus</t>
+  </si>
+  <si>
+    <t>Steuerung, Regelung und Automatisierung von Prozessen im Bereich des Maschinen- und Anlagenbaus 
+&lt;a href="http://www.cep-dresden.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Löbtauer Str. 71</t>
+  </si>
+  <si>
+    <t>Löbtauer Str. 71 01159 Dresden</t>
+  </si>
+  <si>
+    <t>http://www.cep-dresden.de/</t>
+  </si>
+  <si>
+    <t>51.0453134,13.7066184</t>
+  </si>
+  <si>
+    <t>EAM Elektro- und Automatisierungs- technik Morgenstern GmbH</t>
+  </si>
+  <si>
+    <t>Entwicklung, Planung und Realisierung von Ingenieur- und Industriedienstleistungen in den Bereichen Elektrotechnik und Automatisierungstechnik.</t>
+  </si>
+  <si>
+    <t>Entwicklung, Planung und Realisierung von Ingenieur- und Industriedienstleistungen in den Bereichen Elektrotechnik und Automatisierungstechnik. 
+&lt;a href="https://www.air-meissen.de/unternehmen/details/eam-elektro-und-automatisierungstechnik-morgenstern-gmbh-nuenchritz.html"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01612 Nünchritz</t>
+  </si>
+  <si>
+    <t>Riesaer Str. 2</t>
+  </si>
+  <si>
+    <t>Riesaer Str. 2 01612 Nünchritz</t>
+  </si>
+  <si>
+    <t>https://www.air-meissen.de/unternehmen/details/eam-elektro-und-automatisierungstechnik-morgenstern-gmbh-nuenchritz.html</t>
+  </si>
+  <si>
+    <t>51.3013677,13.383009219565219</t>
+  </si>
+  <si>
+    <t>Elektrische Automatisierungs- und Antriebstechnik  EAAT GmbH Chemnitz</t>
+  </si>
+  <si>
+    <t>Spezialisten für elektrische Automatisierungs- und Antriebstechnik</t>
+  </si>
+  <si>
+    <t>Spezialisten für elektrische Automatisierungs- und Antriebstechnik 
+&lt;a href="https://www.eaat.de/de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>09244 Lichtenau</t>
+  </si>
+  <si>
+    <t>Gottfried-Schenker-Straße 4</t>
+  </si>
+  <si>
+    <t>Gottfried-Schenker-Straße 4 09244 Lichtenau</t>
+  </si>
+  <si>
+    <t>https://www.eaat.de/de/</t>
+  </si>
+  <si>
+    <t>50.92863395,12.980844662344019</t>
+  </si>
+  <si>
+    <t>Elnic in Dresden GmbH elektronische Energie- und Automatisierungstechnik</t>
+  </si>
+  <si>
+    <t>Steuerungen für Maschinen und Anlagen von der Konzeption über die Realisierung bis zum Service.</t>
+  </si>
+  <si>
+    <t>Steuerungen für Maschinen und Anlagen von der Konzeption über die Realisierung bis zum Service. 
+&lt;a href="https://www.elnic-dresden.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bosewitzer Straße 20</t>
+  </si>
+  <si>
+    <t>Bosewitzer Straße 20 01259 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.elnic-dresden.de/</t>
+  </si>
+  <si>
+    <t>F &amp; S Prozessautomation GmbH</t>
+  </si>
+  <si>
+    <t>Automationsunternehmen.</t>
+  </si>
+  <si>
+    <t>Automationsunternehmen. 
+&lt;a href="https://www.fs-group.de/de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01809 Dohna</t>
+  </si>
+  <si>
+    <t>Gewerbering 35</t>
+  </si>
+  <si>
+    <t>Gewerbering 35 01809 Dohna</t>
+  </si>
+  <si>
+    <t>https://www.fs-group.de/de/</t>
+  </si>
+  <si>
+    <t>50.9493016,13.864141418839107</t>
+  </si>
+  <si>
+    <t>Frequenz Elektro GmbH</t>
+  </si>
+  <si>
+    <t>Herstellung von Automatisierungs- und Steuertechnik</t>
+  </si>
+  <si>
+    <t>Herstellung von Automatisierungs- und Steuertechnik 
+&lt;a href="https://www.frequenzelektro.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01454 Radeberg</t>
+  </si>
+  <si>
+    <t>An der Ziegelei 6 01454 Radeberg</t>
+  </si>
+  <si>
+    <t>https://www.frequenzelektro.de/</t>
+  </si>
+  <si>
+    <t>gat Gesellschaft für Automatisierungstechnik mbH</t>
+  </si>
+  <si>
+    <t>Dienstleister rund um die Automatisierungstechnik.</t>
+  </si>
+  <si>
+    <t>Dienstleister rund um die Automatisierungstechnik. 
+&lt;a href="https://www.gatgmbh.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>09232 Hartmannsdorf</t>
+  </si>
+  <si>
+    <t>Burkersdorfer Weg 4</t>
+  </si>
+  <si>
+    <t>Burkersdorfer Weg 4 09232 Hartmannsdorf</t>
+  </si>
+  <si>
+    <t>https://www.gatgmbh.de/</t>
+  </si>
+  <si>
+    <t>50.897634,12.796025870107592</t>
+  </si>
+  <si>
+    <t>Hörmann Rawema Engineering &amp; Consulting GmbH</t>
+  </si>
+  <si>
+    <t>Technischer Fachplanungen im industriellen Sektor mit Fokus auf Produktionstechnologien und Fabrikplanung.</t>
+  </si>
+  <si>
+    <t>Technischer Fachplanungen im industriellen Sektor mit Fokus auf Produktionstechnologien und Fabrikplanung. 
+&lt;a href="https://hoermann-rawema.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Brückenstraße 8</t>
+  </si>
+  <si>
+    <t>Brückenstraße 8 09111 Chemnitz</t>
+  </si>
+  <si>
+    <t>https://hoermann-rawema.de/</t>
+  </si>
+  <si>
+    <t>50.8350414,12.9248779</t>
+  </si>
+  <si>
+    <t>IMM electronics GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard- und Softwareentwicklung und Konstruktion im Bereich der Industrieautomation. </t>
+  </si>
+  <si>
+    <t>Hard- und Softwareentwicklung und Konstruktion im Bereich der Industrieautomation.  
+&lt;a href="https://www.imm-electronics.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leipziger Str. 32 </t>
+  </si>
+  <si>
+    <t>Leipziger Str. 32  09648 Mittweida</t>
+  </si>
+  <si>
+    <t>https://www.imm-electronics.de/</t>
+  </si>
+  <si>
+    <t>50.990901199999996,12.95817170000001</t>
+  </si>
+  <si>
+    <t>KIESELSTEIN International GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maschienenbauunternehmen mit  mehreren "Industrie 4.0" Verbundprojekte in Forschung und Entwicklung. </t>
+  </si>
+  <si>
+    <t>Maschienenbauunternehmen mit  mehreren "Industrie 4.0" Verbundprojekte in Forschung und Entwicklung.  
+&lt;a href="https://www.kieselstein.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Erzbergerstraße 3</t>
+  </si>
+  <si>
+    <t>Erzbergerstraße 3 09116 Chemnitz</t>
+  </si>
+  <si>
+    <t>https://www.kieselstein.com/</t>
+  </si>
+  <si>
+    <t>50.835288750000004,12.892613489251618</t>
+  </si>
+  <si>
+    <t>Koschmieder Bauelemente GmbH</t>
+  </si>
+  <si>
+    <t>Herstellung von Bauelementen und Metallbauarbeiten mit Hilfe einer  Robotik-Totalstation.</t>
+  </si>
+  <si>
+    <t>Herstellung von Bauelementen und Metallbauarbeiten mit Hilfe einer  Robotik-Totalstation. 
+&lt;a href="https://koschmieder-bauelemente.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Hohensteiner Str. 194</t>
+  </si>
+  <si>
+    <t>Hohensteiner Str. 194 09212 Limbach-Oberfrohna</t>
+  </si>
+  <si>
+    <t>https://koschmieder-bauelemente.de/</t>
+  </si>
+  <si>
+    <t>50.8295448,12.753862465224952</t>
+  </si>
+  <si>
+    <t>Meshmerize GmbH</t>
+  </si>
+  <si>
+    <t>Start-Up: Entwicklung drahtloser Mesh-Netzwerke für industrielle Maschinen.</t>
+  </si>
+  <si>
+    <t>Start-Up: Entwicklung drahtloser Mesh-Netzwerke für industrielle Maschinen. 
+&lt;a href="https://www.meshmerize.net/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Georg-Schumann-Straße 11</t>
+  </si>
+  <si>
+    <t>Georg-Schumann-Straße 11 01187 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.meshmerize.net/</t>
+  </si>
+  <si>
+    <t>METROM Mechatronische Maschinen GmbH</t>
+  </si>
+  <si>
+    <t>Innovative Bearbeitungsmaschinen mit Robotertechnik und z.B. parallelkinematische Maschinen zur Bearbeitung.</t>
+  </si>
+  <si>
+    <t>Innovative Bearbeitungsmaschinen mit Robotertechnik und z.B. parallelkinematische Maschinen zur Bearbeitung. 
+&lt;a href="https://www.metrom-mobil.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Schönaicher Str. 6</t>
+  </si>
+  <si>
+    <t>Schönaicher Str. 6 09232 Hartmannsdorf</t>
+  </si>
+  <si>
+    <t>https://www.metrom-mobil.com/</t>
+  </si>
+  <si>
+    <t>50.899139000000005,12.792291706543429</t>
+  </si>
+  <si>
+    <t>Mimetik UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start-up: Roboter mittels Handbewergungen bewegen. </t>
+  </si>
+  <si>
+    <t>Start-up: Roboter mittels Handbewergungen bewegen.  
+&lt;a href="https://www.mimetik.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Wiener Str. 82</t>
+  </si>
+  <si>
+    <t>Wiener Str. 82 01219 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.mimetik.com/</t>
+  </si>
+  <si>
+    <t>51.03247255,13.7585671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modis GmbH </t>
+  </si>
+  <si>
+    <t>Technologie Beratung: Roadmaps, innovative Produkte und Geschäftsmodelle, sowie Personalvermittlung.</t>
+  </si>
+  <si>
+    <t>Technologie Beratung: Roadmaps, innovative Produkte und Geschäftsmodelle, sowie Personalvermittlung. 
+&lt;a href="https://www.modis.com/de-de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>09112 Chemnitz</t>
+  </si>
+  <si>
+    <t>Zwickauer Straße 56</t>
+  </si>
+  <si>
+    <t>Zwickauer Straße 56 09112 Chemnitz</t>
+  </si>
+  <si>
+    <t>https://www.modis.com/de-de/</t>
+  </si>
+  <si>
+    <t>50.8273257,12.9086138</t>
+  </si>
+  <si>
+    <t>Schulgasse 2</t>
+  </si>
+  <si>
+    <t>Schulgasse 2 01067 Dresden</t>
+  </si>
+  <si>
+    <t>51.0478888,13.7391399</t>
+  </si>
+  <si>
+    <t>04315 Leipzig</t>
+  </si>
+  <si>
+    <t>Atriumstraße 1</t>
+  </si>
+  <si>
+    <t>Atriumstraße 1 04315 Leipzig</t>
+  </si>
+  <si>
+    <t>51.3442438,12.3943706</t>
+  </si>
+  <si>
+    <t>04105 Leipzig</t>
+  </si>
+  <si>
+    <t>Löhrstraße 2</t>
+  </si>
+  <si>
+    <t>Löhrstraße 2 04105 Leipzig</t>
+  </si>
+  <si>
+    <t>51.3445801,12.3739063</t>
+  </si>
+  <si>
+    <t>Äußere Schneeberger Straße 2-4</t>
+  </si>
+  <si>
+    <t>Äußere Schneeberger Straße 2-4 08056 Zwickau</t>
+  </si>
+  <si>
+    <t>50.7141267,12.496838</t>
+  </si>
+  <si>
+    <t>Osterland Agrar GmbH</t>
+  </si>
+  <si>
+    <t>Milchvieh-Großbetrieb mit 44 Melkrobotern.</t>
+  </si>
+  <si>
+    <t>Milchvieh-Großbetrieb mit 44 Melkrobotern. 
+&lt;a href="https://www.osterland-agrar.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>04654 Frohburg</t>
+  </si>
+  <si>
+    <t>Schäfereiweg 7</t>
+  </si>
+  <si>
+    <t>Schäfereiweg 7 04654 Frohburg</t>
+  </si>
+  <si>
+    <t>https://www.osterland-agrar.com/</t>
+  </si>
+  <si>
+    <t>51.0512365,12.5615873</t>
+  </si>
+  <si>
+    <t>Peeriot AG</t>
+  </si>
+  <si>
+    <t>Start-Up: dezentrales IoT für vereinfachten Datenaustausch zwischen Geräten.</t>
+  </si>
+  <si>
+    <t>Start-Up: dezentrales IoT für vereinfachten Datenaustausch zwischen Geräten. 
+&lt;a href="https://www.peeriot.io/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>04603 Nobitz</t>
+  </si>
+  <si>
+    <t>Zürchau 15a</t>
+  </si>
+  <si>
+    <t>Zürchau 15a 04603 Nobitz</t>
+  </si>
+  <si>
+    <t>https://www.peeriot.io/</t>
+  </si>
+  <si>
+    <t>50.92160235,12.4327092</t>
+  </si>
+  <si>
+    <t>Peerox GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwickelt das Assistenzsystem "MADDOX", das Bediener von Maschinen in der Verarbeitungs- und Verpackungstechnik bei der Fehlerbehebung helfen soll. </t>
+  </si>
+  <si>
+    <t>Entwickelt das Assistenzsystem "MADDOX", das Bediener von Maschinen in der Verarbeitungs- und Verpackungstechnik bei der Fehlerbehebung helfen soll.  
+&lt;a href="https://peerox.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Tübinger Str. 10</t>
+  </si>
+  <si>
+    <t>Tübinger Str. 10 01189 Dresden</t>
+  </si>
+  <si>
+    <t>https://peerox.de/</t>
+  </si>
+  <si>
+    <t>51.0108647,13.702504320100036</t>
+  </si>
+  <si>
+    <t>PowerOn GmbH</t>
+  </si>
+  <si>
+    <t>Start-up: Intelligente soft Sensor- und Aktorlösungen für die Robotik und Schnittstellentechnologien</t>
+  </si>
+  <si>
+    <t>Start-up: Intelligente soft Sensor- und Aktorlösungen für die Robotik und Schnittstellentechnologien 
+&lt;a href="https://www.poweron.one/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Nöthhnitzer Straße 64</t>
+  </si>
+  <si>
+    <t>Nöthhnitzer Straße 64 01187 Dresden</t>
+  </si>
+  <si>
+    <t>https://www.poweron.one/</t>
+  </si>
+  <si>
+    <t>51.02474565,13.726102887463396</t>
+  </si>
+  <si>
+    <t>Robotron Datenbank- Software</t>
+  </si>
+  <si>
+    <t>Verwaltung und Auswertung großer Datenmengen mit praxisnahen Software-Lösungen</t>
+  </si>
+  <si>
+    <t>Verwaltung und Auswertung großer Datenmengen mit praxisnahen Software-Lösungen 
+&lt;a href="https://www.robotron.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Semodia GmbH</t>
+  </si>
+  <si>
+    <t>Start-Up: modularen Prozessautomation und der Standardisierung des Module Type Package (MTP).</t>
+  </si>
+  <si>
+    <t>Start-Up: modularen Prozessautomation und der Standardisierung des Module Type Package (MTP). 
+&lt;a href="https://semodia.com/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01445 Radebeul</t>
+  </si>
+  <si>
+    <t>Meißner Str. 37</t>
+  </si>
+  <si>
+    <t>Meißner Str. 37 01445 Radebeul</t>
+  </si>
+  <si>
+    <t>https://semodia.com/</t>
+  </si>
+  <si>
+    <t>51.0971736,13.6923622</t>
+  </si>
+  <si>
+    <t>Tech Control GmbH</t>
+  </si>
+  <si>
+    <t>Schaltanlagen für Automatisierungsanlagen.</t>
+  </si>
+  <si>
+    <t>Schaltanlagen für Automatisierungsanlagen. 
+&lt;a href="https://www.tech-control.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01683 Nossen</t>
+  </si>
+  <si>
+    <t>Gewerbestraße 4</t>
+  </si>
+  <si>
+    <t>Gewerbestraße 4 01683 Nossen</t>
+  </si>
+  <si>
+    <t>https://www.tech-control.de/</t>
+  </si>
+  <si>
+    <t>51.0477429,13.2929577</t>
+  </si>
+  <si>
+    <t>TRUMPF Sachsen GmbH</t>
+  </si>
+  <si>
+    <t>Automatisierungseinrichtungen für Laserschneidmaschinen, Stanz- und Kombimaschinen sowie komplexe Automatisierungssysteme mit Lagertechnik.</t>
+  </si>
+  <si>
+    <t>Automatisierungseinrichtungen für Laserschneidmaschinen, Stanz- und Kombimaschinen sowie komplexe Automatisierungssysteme mit Lagertechnik. 
+&lt;a href="https://www.trumpf.com/no_cache/de_DE/unternehmen/trumpf-gruppe/standorte/standort/neukirch/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01904 Neukirch/Lausitz</t>
+  </si>
+  <si>
+    <t>Leibingerstraße 13</t>
+  </si>
+  <si>
+    <t>Leibingerstraße 13 01904 Neukirch/Lausitz</t>
+  </si>
+  <si>
+    <t>https://www.trumpf.com/no_cache/de_DE/unternehmen/trumpf-gruppe/standorte/standort/neukirch/</t>
+  </si>
+  <si>
+    <t>51.093036850000004,14.329797945586378</t>
+  </si>
+  <si>
+    <t>VELOMAT Messelektronik GmbH</t>
+  </si>
+  <si>
+    <t>Herstellung und Entwicklung von Mess-, Steuer- und Reglungstechnik / Automatisierungstechnik</t>
+  </si>
+  <si>
+    <t>Herstellung und Entwicklung von Mess-, Steuer- und Reglungstechnik / Automatisierungstechnik 
+&lt;a href="https://www.velomat.de/"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01917 Kamenz</t>
+  </si>
+  <si>
+    <t>Schwarzer Weg 23B</t>
+  </si>
+  <si>
+    <t>Schwarzer Weg 23B 01917 Kamenz</t>
+  </si>
+  <si>
+    <t>https://www.velomat.de/</t>
+  </si>
+  <si>
+    <t>51.2826699,14.091081988694878</t>
+  </si>
+  <si>
+    <t>Voith Engineering Services GmbH Education Center</t>
+  </si>
+  <si>
+    <t>Weiterbildungsleistungen im Bereich der CAD Konstruktion, Robotik &amp; Automatisierung, Projektmanagement, dem technischen Vertrieb &amp; Lean Management.</t>
+  </si>
+  <si>
+    <t>Weiterbildungsleistungen im Bereich der CAD Konstruktion, Robotik &amp; Automatisierung, Projektmanagement, dem technischen Vertrieb &amp; Lean Management. 
+&lt;a href="https://automation-engineering.leadec-services.com/de/leistungen/automation/weitere-leistungen-automation/education-center"&gt;Homepage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Deubners Weg 10</t>
+  </si>
+  <si>
+    <t>Deubners Weg 10 09112 Chemnitz</t>
+  </si>
+  <si>
+    <t>https://automation-engineering.leadec-services.com/de/leistungen/automation/weitere-leistungen-automation/education-center</t>
+  </si>
+  <si>
+    <t>50.82697005,12.915549702271502</t>
   </si>
 </sst>
 </file>
@@ -3309,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O123"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection sqref="A1:O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,37 +4185,37 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>938</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>939</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>817</v>
+        <v>940</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>941</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>942</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>943</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>944</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>945</v>
       </c>
       <c r="J5" s="2">
-        <v>51.128033449999997</v>
+        <v>51.075853299999999</v>
       </c>
       <c r="K5" s="1">
-        <v>13.709980849819299</v>
+        <v>13.689431900000001</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>19</v>
@@ -3559,37 +4232,37 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2">
-        <v>51.050396200000002</v>
+        <v>51.128033449999997</v>
       </c>
       <c r="K6" s="1">
-        <v>13.71219</v>
+        <v>13.709980849819299</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -3606,43 +4279,43 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>51.342409099999998</v>
+        <v>51.050396200000002</v>
       </c>
       <c r="K7" s="1">
-        <v>12.368007700921201</v>
+        <v>13.71219</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>809</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
         <v>813</v>
@@ -3653,43 +4326,43 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2">
-        <v>51.315290949999998</v>
+        <v>51.342409099999998</v>
       </c>
       <c r="K8" s="1">
-        <v>13.2810157332618</v>
+        <v>12.368007700921201</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>809</v>
       </c>
       <c r="N8" t="s">
         <v>813</v>
@@ -3700,37 +4373,37 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2">
-        <v>50.683198149999903</v>
+        <v>51.315290949999998</v>
       </c>
       <c r="K9" s="1">
-        <v>12.5655855945031</v>
+        <v>13.2810157332618</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>19</v>
@@ -3747,37 +4420,37 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2">
-        <v>51.0828737</v>
+        <v>50.683198149999903</v>
       </c>
       <c r="K10" s="1">
-        <v>12.9193838</v>
+        <v>12.5655855945031</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>19</v>
@@ -3794,37 +4467,37 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2">
-        <v>51.153603650000001</v>
+        <v>51.0828737</v>
       </c>
       <c r="K11" s="1">
-        <v>12.5062060380286</v>
+        <v>12.9193838</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>19</v>
@@ -3841,43 +4514,43 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2">
-        <v>50.909355599999998</v>
+        <v>51.153603650000001</v>
       </c>
       <c r="K12" s="1">
-        <v>13.3442086</v>
+        <v>12.5062060380286</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
         <v>813</v>
@@ -3888,43 +4561,43 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>946</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>947</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>825</v>
+        <v>948</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>949</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>950</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>951</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>104</v>
+        <v>952</v>
       </c>
       <c r="J13" s="2">
-        <v>51.403320049999998</v>
+        <v>51.051623800000002</v>
       </c>
       <c r="K13" s="1">
-        <v>13.4388551975408</v>
+        <v>13.7594285</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N13" t="s">
         <v>813</v>
@@ -3935,43 +4608,43 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2">
-        <v>51.054640399999997</v>
+        <v>50.909355599999998</v>
       </c>
       <c r="K14" s="1">
-        <v>14.488254400000001</v>
+        <v>13.3442086</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
         <v>813</v>
@@ -3982,37 +4655,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J15" s="2">
-        <v>50.691620700000001</v>
+        <v>51.403320049999998</v>
       </c>
       <c r="K15" s="1">
-        <v>12.5567023</v>
+        <v>13.4388551975408</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
@@ -4029,43 +4702,43 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J16" s="2">
-        <v>51.095299349999998</v>
+        <v>51.054640399999997</v>
       </c>
       <c r="K16" s="1">
-        <v>13.769173452932399</v>
+        <v>14.488254400000001</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>809</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
         <v>813</v>
@@ -4076,37 +4749,37 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J17" s="2">
-        <v>51.011027149999997</v>
+        <v>50.691620700000001</v>
       </c>
       <c r="K17" s="1">
-        <v>13.700440855307701</v>
+        <v>12.5567023</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>19</v>
@@ -4123,43 +4796,43 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J18" s="2">
-        <v>51.4430263</v>
+        <v>51.095299349999998</v>
       </c>
       <c r="K18" s="1">
-        <v>14.266421612968101</v>
+        <v>13.769173452932399</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>97</v>
+        <v>809</v>
       </c>
       <c r="N18" t="s">
         <v>813</v>
@@ -4170,43 +4843,43 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J19" s="2">
-        <v>51.03075905</v>
+        <v>51.011027149999997</v>
       </c>
       <c r="K19" s="1">
-        <v>13.714092924365801</v>
+        <v>13.700440855307701</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
         <v>813</v>
@@ -4217,43 +4890,43 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J20" s="2">
-        <v>50.7961271</v>
+        <v>51.4430263</v>
       </c>
       <c r="K20" s="1">
-        <v>12.917207700000001</v>
+        <v>14.266421612968101</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
         <v>813</v>
@@ -4264,43 +4937,43 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J21" s="2">
-        <v>50.927394700000001</v>
+        <v>51.03075905</v>
       </c>
       <c r="K21" s="1">
-        <v>13.3384631</v>
+        <v>13.714092924365801</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>97</v>
+        <v>937</v>
       </c>
       <c r="N21" t="s">
         <v>813</v>
@@ -4311,43 +4984,43 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2">
-        <v>51.124047750000003</v>
+        <v>50.7961271</v>
       </c>
       <c r="K22" s="1">
-        <v>13.734499825412501</v>
+        <v>12.917207700000001</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
         <v>813</v>
@@ -4358,43 +5031,43 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>807</v>
+        <v>157</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J23" s="2">
-        <v>50.861026600000002</v>
+        <v>50.927394700000001</v>
       </c>
       <c r="K23" s="1">
-        <v>12.7611043</v>
+        <v>13.3384631</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
         <v>813</v>
@@ -4405,43 +5078,43 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J24" s="2">
-        <v>51.026839799999998</v>
+        <v>51.124047750000003</v>
       </c>
       <c r="K24" s="1">
-        <v>13.722932188807</v>
+        <v>13.734499825412501</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>937</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
         <v>813</v>
@@ -4452,43 +5125,43 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>953</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>954</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>837</v>
+        <v>955</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>182</v>
+        <v>956</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>957</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>184</v>
+        <v>958</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>959</v>
       </c>
       <c r="J25" s="2">
-        <v>51.040245200000001</v>
+        <v>51.061248900000002</v>
       </c>
       <c r="K25" s="1">
-        <v>13.7320768</v>
+        <v>13.751382100000001</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="N25" t="s">
         <v>813</v>
@@ -4499,43 +5172,43 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>807</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="J26" s="2">
-        <v>51.342275200000003</v>
+        <v>50.861026600000002</v>
       </c>
       <c r="K26" s="1">
-        <v>12.3787781</v>
+        <v>12.7611043</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="N26" t="s">
         <v>813</v>
@@ -4546,37 +5219,37 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>195</v>
+        <v>960</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>961</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>839</v>
+        <v>962</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>198</v>
+        <v>963</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>199</v>
+        <v>964</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>200</v>
+        <v>965</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>201</v>
+        <v>966</v>
       </c>
       <c r="J27" s="2">
-        <v>50.705061149999999</v>
+        <v>51.045313399999998</v>
       </c>
       <c r="K27" s="1">
-        <v>12.757935546356901</v>
+        <v>13.7066184</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>19</v>
@@ -4593,43 +5266,43 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="J28" s="2">
-        <v>51.045702149999997</v>
+        <v>51.026839799999998</v>
       </c>
       <c r="K28" s="1">
-        <v>13.7036915482057</v>
+        <v>13.722932188807</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="N28" t="s">
         <v>813</v>
@@ -4640,43 +5313,43 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="J29" s="2">
-        <v>50.618687850000001</v>
+        <v>51.040245200000001</v>
       </c>
       <c r="K29" s="1">
-        <v>12.748350035521501</v>
+        <v>13.7320768</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>936</v>
+        <v>809</v>
       </c>
       <c r="N29" t="s">
         <v>813</v>
@@ -4687,43 +5360,43 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="J30" s="2">
-        <v>51.000543350000001</v>
+        <v>51.342275200000003</v>
       </c>
       <c r="K30" s="1">
-        <v>13.6500297039596</v>
+        <v>12.3787781</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s">
         <v>813</v>
@@ -4734,43 +5407,43 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="J31" s="2">
-        <v>51.055118550000003</v>
+        <v>50.705061149999999</v>
       </c>
       <c r="K31" s="1">
-        <v>13.7835997591941</v>
+        <v>12.757935546356901</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N31" t="s">
         <v>813</v>
@@ -4781,37 +5454,37 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>231</v>
+        <v>967</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>232</v>
+        <v>968</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>844</v>
+        <v>969</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>233</v>
+        <v>971</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>234</v>
+        <v>972</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>235</v>
+        <v>973</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>236</v>
+        <v>974</v>
       </c>
       <c r="J32" s="2">
-        <v>51.098392799999999</v>
+        <v>51.3013677</v>
       </c>
       <c r="K32" s="1">
-        <v>13.770450996972199</v>
+        <v>13.383009219565199</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>19</v>
@@ -4828,43 +5501,43 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="J33" s="2">
-        <v>51.128882500000003</v>
+        <v>51.045702149999997</v>
       </c>
       <c r="K33" s="1">
-        <v>13.915134999999999</v>
+        <v>13.7036915482057</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>194</v>
+        <v>809</v>
       </c>
       <c r="N33" t="s">
         <v>813</v>
@@ -4875,43 +5548,43 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J34" s="2">
-        <v>50.753951749999999</v>
+        <v>50.618687850000001</v>
       </c>
       <c r="K34" s="1">
-        <v>12.9529864549454</v>
+        <v>12.748350035521501</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>20</v>
+        <v>936</v>
       </c>
       <c r="N34" t="s">
         <v>813</v>
@@ -4922,37 +5595,37 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="J35" s="2">
-        <v>51.133793900000001</v>
+        <v>51.000543350000001</v>
       </c>
       <c r="K35" s="1">
-        <v>13.778867699999999</v>
+        <v>13.6500297039596</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>19</v>
@@ -4969,37 +5642,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>975</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>258</v>
+        <v>976</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>848</v>
+        <v>977</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>259</v>
+        <v>978</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>260</v>
+        <v>979</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>261</v>
+        <v>980</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>262</v>
+        <v>981</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>263</v>
+        <v>982</v>
       </c>
       <c r="J36" s="2">
-        <v>50.996374799999998</v>
+        <v>50.928633949999998</v>
       </c>
       <c r="K36" s="1">
-        <v>13.835865</v>
+        <v>12.980844662343999</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>19</v>
@@ -5016,43 +5689,43 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>264</v>
+        <v>983</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>984</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>849</v>
+        <v>985</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>267</v>
+        <v>986</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>268</v>
+        <v>987</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>269</v>
+        <v>988</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J37" s="2">
-        <v>51.106102999999997</v>
+        <v>50.996374799999998</v>
       </c>
       <c r="K37" s="1">
-        <v>14.2012678674103</v>
+        <v>13.835865</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s">
         <v>813</v>
@@ -5063,43 +5736,43 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="J38" s="2">
-        <v>50.810667199999997</v>
+        <v>51.055118550000003</v>
       </c>
       <c r="K38" s="1">
-        <v>13.0624969392937</v>
+        <v>13.7835997591941</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>194</v>
+        <v>937</v>
       </c>
       <c r="N38" t="s">
         <v>813</v>
@@ -5110,37 +5783,37 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="J39" s="2">
-        <v>50.747262999999997</v>
+        <v>51.098392799999999</v>
       </c>
       <c r="K39" s="1">
-        <v>12.987449</v>
+        <v>13.770450996972199</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>19</v>
@@ -5157,43 +5830,43 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="J40" s="2">
-        <v>51.009650199999903</v>
+        <v>51.128882500000003</v>
       </c>
       <c r="K40" s="1">
-        <v>13.697896842409801</v>
+        <v>13.915134999999999</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>937</v>
+        <v>194</v>
       </c>
       <c r="N40" t="s">
         <v>813</v>
@@ -5204,43 +5877,43 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="J41" s="2">
-        <v>50.813682</v>
+        <v>50.753951749999999</v>
       </c>
       <c r="K41" s="1">
-        <v>12.925237525859499</v>
+        <v>12.9529864549454</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N41" t="s">
         <v>813</v>
@@ -5251,37 +5924,37 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>297</v>
+        <v>989</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>298</v>
+        <v>990</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>854</v>
+        <v>991</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>148</v>
+        <v>992</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>149</v>
+        <v>993</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>994</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>299</v>
+        <v>995</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>152</v>
+        <v>996</v>
       </c>
       <c r="J42" s="2">
-        <v>50.7961271</v>
+        <v>50.949301599999998</v>
       </c>
       <c r="K42" s="1">
-        <v>12.917207700000001</v>
+        <v>13.8641414188391</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>19</v>
@@ -5298,37 +5971,37 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="J43" s="2">
-        <v>51.378427899999998</v>
+        <v>51.133793900000001</v>
       </c>
       <c r="K43" s="1">
-        <v>12.469313400000001</v>
+        <v>13.778867699999999</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>19</v>
@@ -5345,37 +6018,37 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="J44" s="2">
-        <v>50.804664750000001</v>
+        <v>50.996374799999998</v>
       </c>
       <c r="K44" s="1">
-        <v>12.853366816127499</v>
+        <v>13.835865</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>19</v>
@@ -5392,43 +6065,43 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="J45" s="2">
-        <v>50.829529350000001</v>
+        <v>51.106102999999997</v>
       </c>
       <c r="K45" s="1">
-        <v>12.8249918611601</v>
+        <v>14.2012678674103</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>20</v>
+        <v>936</v>
       </c>
       <c r="N45" t="s">
         <v>813</v>
@@ -5439,43 +6112,43 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="J46" s="2">
-        <v>51.329053399999999</v>
+        <v>50.810667199999997</v>
       </c>
       <c r="K46" s="1">
-        <v>12.3291944</v>
+        <v>13.0624969392937</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N46" t="s">
         <v>813</v>
@@ -5486,37 +6159,37 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="J47" s="2">
-        <v>50.834876199999997</v>
+        <v>50.747262999999997</v>
       </c>
       <c r="K47" s="1">
-        <v>13.436433945024</v>
+        <v>12.987449</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>19</v>
@@ -5533,37 +6206,37 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="J48" s="2">
-        <v>50.987380000000002</v>
+        <v>51.009650199999903</v>
       </c>
       <c r="K48" s="1">
-        <v>12.972823999999999</v>
+        <v>13.697896842409801</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>29</v>
@@ -5580,37 +6253,37 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="J49" s="2">
-        <v>50.893179449999998</v>
+        <v>50.813682</v>
       </c>
       <c r="K49" s="1">
-        <v>14.804417450000001</v>
+        <v>12.925237525859499</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>29</v>
@@ -5627,43 +6300,43 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>349</v>
+        <v>997</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>350</v>
+        <v>998</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>862</v>
+        <v>999</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>181</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>352</v>
+        <v>1001</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>353</v>
+        <v>1002</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="J50" s="2">
-        <v>51.037545450000003</v>
+        <v>51.128882500000003</v>
       </c>
       <c r="K50" s="1">
-        <v>13.735155687776</v>
+        <v>13.915134999999999</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>937</v>
+        <v>194</v>
       </c>
       <c r="N50" t="s">
         <v>813</v>
@@ -5674,43 +6347,43 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>358</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="J51" s="2">
-        <v>51.314208100000002</v>
+        <v>50.7961271</v>
       </c>
       <c r="K51" s="1">
-        <v>12.3729707938844</v>
+        <v>12.917207700000001</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N51" t="s">
         <v>813</v>
@@ -5721,37 +6394,37 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>362</v>
+        <v>1003</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>363</v>
+        <v>1004</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>864</v>
+        <v>1005</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>364</v>
+        <v>1006</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>365</v>
+        <v>1007</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>366</v>
+        <v>1008</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>367</v>
+        <v>1009</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>368</v>
+        <v>1010</v>
       </c>
       <c r="J52" s="2">
-        <v>50.70705555</v>
+        <v>50.897633999999996</v>
       </c>
       <c r="K52" s="1">
-        <v>12.490833449999901</v>
+        <v>12.796025870107499</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>19</v>
@@ -5768,37 +6441,37 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="J53" s="2">
-        <v>51.431986700000003</v>
+        <v>51.378427899999998</v>
       </c>
       <c r="K53" s="1">
-        <v>14.2847914</v>
+        <v>12.469313400000001</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>19</v>
@@ -5815,43 +6488,43 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="J54" s="2">
-        <v>51.098392799999999</v>
+        <v>50.804664750000001</v>
       </c>
       <c r="K54" s="1">
-        <v>13.770450996972199</v>
+        <v>12.853366816127499</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N54" t="s">
         <v>813</v>
@@ -5862,37 +6535,37 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="J55" s="2">
-        <v>50.811292899999998</v>
+        <v>50.829529350000001</v>
       </c>
       <c r="K55" s="1">
-        <v>12.9050544484402</v>
+        <v>12.8249918611601</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>19</v>
@@ -5909,43 +6582,43 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="J56" s="2">
-        <v>50.811819300000003</v>
+        <v>51.329053399999999</v>
       </c>
       <c r="K56" s="1">
-        <v>12.848720200000001</v>
+        <v>12.3291944</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N56" t="s">
         <v>813</v>
@@ -5956,37 +6629,37 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="J57" s="2">
-        <v>51.0618482</v>
+        <v>50.834876199999997</v>
       </c>
       <c r="K57" s="1">
-        <v>13.6814365</v>
+        <v>13.436433945024</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>19</v>
@@ -6003,43 +6676,43 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>398</v>
+        <v>1011</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>399</v>
+        <v>1012</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>870</v>
+        <v>1013</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>401</v>
+        <v>1014</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>402</v>
+        <v>1015</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>403</v>
+        <v>1016</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>404</v>
+        <v>1017</v>
       </c>
       <c r="J58" s="2">
-        <v>51.176843699999999</v>
+        <v>50.835041400000001</v>
       </c>
       <c r="K58" s="1">
-        <v>13.8449278418717</v>
+        <v>12.9248779</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>194</v>
+        <v>809</v>
       </c>
       <c r="N58" t="s">
         <v>813</v>
@@ -6050,43 +6723,43 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="J59" s="2">
-        <v>51.118583999999998</v>
+        <v>50.987380000000002</v>
       </c>
       <c r="K59" s="1">
-        <v>13.5898067067751</v>
+        <v>12.972823999999999</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>20</v>
+        <v>937</v>
       </c>
       <c r="N59" t="s">
         <v>813</v>
@@ -6097,43 +6770,43 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="J60" s="2">
-        <v>51.1037885</v>
+        <v>50.893179449999998</v>
       </c>
       <c r="K60" s="1">
-        <v>13.7751555</v>
+        <v>14.804417450000001</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="N60" t="s">
         <v>813</v>
@@ -6144,37 +6817,37 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="J61" s="2">
-        <v>51.308647299999997</v>
+        <v>51.037545450000003</v>
       </c>
       <c r="K61" s="1">
-        <v>12.374944299999999</v>
+        <v>13.735155687776</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>29</v>
@@ -6191,43 +6864,43 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="J62" s="2">
-        <v>51.161085900000003</v>
+        <v>51.314208100000002</v>
       </c>
       <c r="K62" s="1">
-        <v>13.800931650000001</v>
+        <v>12.3729707938844</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>20</v>
+        <v>937</v>
       </c>
       <c r="N62" t="s">
         <v>813</v>
@@ -6238,43 +6911,43 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="J63" s="2">
-        <v>50.80371985</v>
+        <v>50.70705555</v>
       </c>
       <c r="K63" s="1">
-        <v>12.8525194578417</v>
+        <v>12.490833449999901</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N63" t="s">
         <v>813</v>
@@ -6285,43 +6958,43 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="J64" s="2">
-        <v>51.183847900000004</v>
+        <v>51.431986700000003</v>
       </c>
       <c r="K64" s="1">
-        <v>13.838300445901201</v>
+        <v>14.2847914</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N64" t="s">
         <v>813</v>
@@ -6332,43 +7005,43 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>445</v>
+        <v>120</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>446</v>
+        <v>233</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>447</v>
+        <v>234</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>448</v>
+        <v>377</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>449</v>
+        <v>236</v>
       </c>
       <c r="J65" s="2">
-        <v>51.1900227</v>
+        <v>51.098392799999999</v>
       </c>
       <c r="K65" s="1">
-        <v>13.3183386721355</v>
+        <v>13.770450996972199</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N65" t="s">
         <v>813</v>
@@ -6379,43 +7052,43 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="J66" s="2">
-        <v>50.603043799999902</v>
+        <v>50.811292899999998</v>
       </c>
       <c r="K66" s="1">
-        <v>12.3206769167611</v>
+        <v>12.9050544484402</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N66" t="s">
         <v>813</v>
@@ -6426,43 +7099,43 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>459</v>
+        <v>316</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
       <c r="J67" s="2">
-        <v>51.254599349999999</v>
+        <v>50.811819300000003</v>
       </c>
       <c r="K67" s="1">
-        <v>12.457931539642299</v>
+        <v>12.848720200000001</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>20</v>
+        <v>937</v>
       </c>
       <c r="N67" t="s">
         <v>813</v>
@@ -6473,43 +7146,43 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>464</v>
+        <v>1018</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>465</v>
+        <v>1019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>467</v>
+        <v>1021</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>468</v>
+        <v>1022</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>469</v>
+        <v>1023</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>470</v>
+        <v>1024</v>
       </c>
       <c r="J68" s="2">
-        <v>51.013990100000001</v>
+        <v>50.990901199999897</v>
       </c>
       <c r="K68" s="1">
-        <v>13.792520011631099</v>
+        <v>12.958171699999999</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>20</v>
+        <v>809</v>
       </c>
       <c r="N68" t="s">
         <v>813</v>
@@ -6520,37 +7193,37 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="J69" s="2">
-        <v>50.55830065</v>
+        <v>51.0618482</v>
       </c>
       <c r="K69" s="1">
-        <v>12.1741686121321</v>
+        <v>13.6814365</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>19</v>
@@ -6567,43 +7240,43 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
       <c r="J70" s="2">
-        <v>51.331427900000001</v>
+        <v>51.176843699999999</v>
       </c>
       <c r="K70" s="1">
-        <v>12.5860953284493</v>
+        <v>13.8449278418717</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N70" t="s">
         <v>813</v>
@@ -6614,37 +7287,37 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="J71" s="2">
-        <v>50.676262250000001</v>
+        <v>51.118583999999998</v>
       </c>
       <c r="K71" s="1">
-        <v>13.1179115373057</v>
+        <v>13.5898067067751</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>19</v>
@@ -6661,43 +7334,43 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="J72" s="2">
-        <v>50.804668199999902</v>
+        <v>51.1037885</v>
       </c>
       <c r="K72" s="1">
-        <v>12.853834337741899</v>
+        <v>13.7751555</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>20</v>
+        <v>936</v>
       </c>
       <c r="N72" t="s">
         <v>813</v>
@@ -6708,43 +7381,43 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="J73" s="2">
-        <v>50.858843149999998</v>
+        <v>51.308647299999997</v>
       </c>
       <c r="K73" s="1">
-        <v>12.7994987836875</v>
+        <v>12.374944299999999</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>20</v>
+        <v>937</v>
       </c>
       <c r="N73" t="s">
         <v>813</v>
@@ -6755,37 +7428,37 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="J74" s="2">
-        <v>51.011623499999999</v>
+        <v>51.161085900000003</v>
       </c>
       <c r="K74" s="1">
-        <v>13.798921999999999</v>
+        <v>13.800931650000001</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>19</v>
@@ -6802,43 +7475,43 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>513</v>
+        <v>309</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>516</v>
+        <v>435</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="J75" s="2">
-        <v>51.093750200000002</v>
+        <v>50.80371985</v>
       </c>
       <c r="K75" s="1">
-        <v>13.6047394</v>
+        <v>12.8525194578417</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>194</v>
+        <v>936</v>
       </c>
       <c r="N75" t="s">
         <v>813</v>
@@ -6849,43 +7522,43 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>518</v>
+        <v>437</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>519</v>
+        <v>438</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>521</v>
+        <v>439</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="J76" s="2">
-        <v>50.853269999999902</v>
+        <v>51.183847900000004</v>
       </c>
       <c r="K76" s="1">
-        <v>12.639887858797</v>
+        <v>13.838300445901201</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>97</v>
+        <v>936</v>
       </c>
       <c r="N76" t="s">
         <v>813</v>
@@ -6896,43 +7569,43 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>525</v>
+        <v>443</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>526</v>
+        <v>444</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>54</v>
+        <v>445</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>56</v>
+        <v>447</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>58</v>
+        <v>449</v>
       </c>
       <c r="J77" s="2">
-        <v>51.342409099999998</v>
+        <v>51.1900227</v>
       </c>
       <c r="K77" s="1">
-        <v>12.368007700921201</v>
+        <v>13.3183386721355</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>809</v>
+        <v>20</v>
       </c>
       <c r="N77" t="s">
         <v>813</v>
@@ -6943,43 +7616,43 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>529</v>
+        <v>451</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>533</v>
+        <v>455</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>534</v>
+        <v>456</v>
       </c>
       <c r="J78" s="2">
-        <v>50.839166900000002</v>
+        <v>50.603043799999902</v>
       </c>
       <c r="K78" s="1">
-        <v>12.928299383917301</v>
+        <v>12.3206769167611</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N78" t="s">
         <v>813</v>
@@ -6990,43 +7663,43 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>535</v>
+        <v>1025</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>536</v>
+        <v>1026</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>891</v>
+        <v>1027</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>537</v>
+        <v>309</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>538</v>
+        <v>1028</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>539</v>
+        <v>1029</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>540</v>
+        <v>1030</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>541</v>
+        <v>1031</v>
       </c>
       <c r="J79" s="2">
-        <v>51.032170199999896</v>
+        <v>50.835288749999997</v>
       </c>
       <c r="K79" s="1">
-        <v>13.758223857120599</v>
+        <v>12.8926134892516</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>97</v>
+        <v>937</v>
       </c>
       <c r="N79" t="s">
         <v>813</v>
@@ -7037,43 +7710,43 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>542</v>
+        <v>457</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>543</v>
+        <v>458</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>544</v>
+        <v>459</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>546</v>
+        <v>461</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>547</v>
+        <v>462</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>548</v>
+        <v>463</v>
       </c>
       <c r="J80" s="2">
-        <v>50.820391499999999</v>
+        <v>51.254599349999999</v>
       </c>
       <c r="K80" s="1">
-        <v>12.8915905</v>
+        <v>12.457931539642299</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N80" t="s">
         <v>813</v>
@@ -7084,43 +7757,43 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>550</v>
+        <v>465</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>161</v>
+        <v>466</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>551</v>
+        <v>467</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>552</v>
+        <v>468</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>553</v>
+        <v>469</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>554</v>
+        <v>470</v>
       </c>
       <c r="J81" s="2">
-        <v>51.122001599999997</v>
+        <v>51.013990100000001</v>
       </c>
       <c r="K81" s="1">
-        <v>13.762884700000001</v>
+        <v>13.792520011631099</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N81" t="s">
         <v>813</v>
@@ -7131,37 +7804,37 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>555</v>
+        <v>1032</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>556</v>
+        <v>1033</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>894</v>
+        <v>1034</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>557</v>
+        <v>1035</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>558</v>
+        <v>1036</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>559</v>
+        <v>1037</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>560</v>
+        <v>1038</v>
       </c>
       <c r="J82" s="2">
-        <v>50.803564299999998</v>
+        <v>50.829544800000001</v>
       </c>
       <c r="K82" s="1">
-        <v>12.923290099999999</v>
+        <v>12.7538624652249</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>216</v>
@@ -7178,37 +7851,37 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="J83" s="2">
-        <v>50.505823849999999</v>
+        <v>50.55830065</v>
       </c>
       <c r="K83" s="1">
-        <v>12.64320215</v>
+        <v>12.1741686121321</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>19</v>
@@ -7225,37 +7898,37 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="J84" s="2">
-        <v>51.308639999999997</v>
+        <v>51.331427900000001</v>
       </c>
       <c r="K84" s="1">
-        <v>14.3088628789819</v>
+        <v>12.5860953284493</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>19</v>
@@ -7272,37 +7945,37 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="J85" s="2">
-        <v>50.55952645</v>
+        <v>50.676262250000001</v>
       </c>
       <c r="K85" s="1">
-        <v>12.7881668995014</v>
+        <v>13.1179115373057</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>19</v>
@@ -7319,43 +7992,43 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>584</v>
+        <v>309</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>586</v>
+        <v>495</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>588</v>
+        <v>497</v>
       </c>
       <c r="J86" s="2">
-        <v>51.134624000000002</v>
+        <v>50.804668199999902</v>
       </c>
       <c r="K86" s="1">
-        <v>14.4064427970632</v>
+        <v>12.853834337741899</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="N86" t="s">
         <v>813</v>
@@ -7366,37 +8039,37 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>589</v>
+        <v>1039</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>590</v>
+        <v>1040</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>899</v>
+        <v>1041</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>591</v>
+        <v>1042</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>592</v>
+        <v>1043</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>593</v>
+        <v>1044</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>594</v>
+        <v>748</v>
       </c>
       <c r="J87" s="2">
-        <v>51.010008749999997</v>
+        <v>51.026487699999997</v>
       </c>
       <c r="K87" s="1">
-        <v>13.7008454005133</v>
+        <v>13.722570899999999</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>96</v>
@@ -7413,43 +8086,43 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>595</v>
+        <v>1045</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>596</v>
+        <v>1046</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>900</v>
+        <v>1047</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>344</v>
+        <v>1006</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>597</v>
+        <v>1048</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>598</v>
+        <v>1049</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>599</v>
+        <v>1050</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>600</v>
+        <v>1051</v>
       </c>
       <c r="J88" s="2">
-        <v>50.905501649999998</v>
+        <v>50.899138999999998</v>
       </c>
       <c r="K88" s="1">
-        <v>14.833019001039</v>
+        <v>12.7922917065434</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N88" t="s">
         <v>813</v>
@@ -7460,43 +8133,43 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>602</v>
+        <v>499</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>603</v>
+        <v>168</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>604</v>
+        <v>500</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>605</v>
+        <v>501</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>606</v>
+        <v>502</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>607</v>
+        <v>503</v>
       </c>
       <c r="J89" s="2">
-        <v>50.859605899999998</v>
+        <v>50.858843149999998</v>
       </c>
       <c r="K89" s="1">
-        <v>13.664528199999999</v>
+        <v>12.7994987836875</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N89" t="s">
         <v>813</v>
@@ -7507,43 +8180,43 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>609</v>
+        <v>505</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>148</v>
+        <v>506</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>149</v>
+        <v>507</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>150</v>
+        <v>508</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>610</v>
+        <v>509</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>152</v>
+        <v>510</v>
       </c>
       <c r="J90" s="2">
-        <v>50.7961271</v>
+        <v>51.011623499999999</v>
       </c>
       <c r="K90" s="1">
-        <v>12.917207700000001</v>
+        <v>13.798921999999999</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N90" t="s">
         <v>813</v>
@@ -7554,43 +8227,43 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>611</v>
+        <v>1052</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>612</v>
+        <v>1053</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>903</v>
+        <v>1054</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>613</v>
+        <v>1055</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>614</v>
+        <v>1056</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>615</v>
+        <v>1057</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>616</v>
+        <v>1058</v>
       </c>
       <c r="J91" s="2">
-        <v>50.727705549999897</v>
+        <v>51.032472550000001</v>
       </c>
       <c r="K91" s="1">
-        <v>12.4751950105642</v>
+        <v>13.7585671</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N91" t="s">
         <v>813</v>
@@ -7601,43 +8274,43 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>617</v>
+        <v>1059</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>618</v>
+        <v>1060</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>904</v>
+        <v>1061</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>619</v>
+        <v>1062</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>620</v>
+        <v>1063</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>621</v>
+        <v>1064</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>622</v>
+        <v>1065</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>623</v>
+        <v>1066</v>
       </c>
       <c r="J92" s="2">
-        <v>50.7354828</v>
+        <v>50.827325700000003</v>
       </c>
       <c r="K92" s="1">
-        <v>12.556826300000001</v>
+        <v>12.908613799999999</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>936</v>
+        <v>809</v>
       </c>
       <c r="N92" t="s">
         <v>813</v>
@@ -7648,43 +8321,43 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>624</v>
+        <v>1059</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>625</v>
+        <v>1060</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>905</v>
+        <v>1061</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>626</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>627</v>
+        <v>1067</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>628</v>
+        <v>1068</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>629</v>
+        <v>1065</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>630</v>
+        <v>1069</v>
       </c>
       <c r="J93" s="2">
-        <v>51.341259700000002</v>
+        <v>51.047888800000003</v>
       </c>
       <c r="K93" s="1">
-        <v>12.383894400000001</v>
+        <v>13.7391399</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>936</v>
+        <v>809</v>
       </c>
       <c r="N93" t="s">
         <v>813</v>
@@ -7695,43 +8368,43 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>631</v>
+        <v>1059</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>632</v>
+        <v>1060</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>906</v>
+        <v>1061</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>633</v>
+        <v>1070</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>634</v>
+        <v>1071</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>635</v>
+        <v>1072</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>636</v>
+        <v>1065</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>637</v>
+        <v>1073</v>
       </c>
       <c r="J94" s="2">
-        <v>50.867490599999996</v>
+        <v>51.344243800000001</v>
       </c>
       <c r="K94" s="1">
-        <v>12.9067597</v>
+        <v>12.3943706</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>20</v>
+        <v>809</v>
       </c>
       <c r="N94" t="s">
         <v>813</v>
@@ -7742,43 +8415,43 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>638</v>
+        <v>1059</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>639</v>
+        <v>1060</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>907</v>
+        <v>1061</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>1074</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>640</v>
+        <v>1075</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>641</v>
+        <v>1076</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>642</v>
+        <v>1065</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>643</v>
+        <v>1077</v>
       </c>
       <c r="J95" s="2">
-        <v>51.051055699999999</v>
+        <v>51.344580100000002</v>
       </c>
       <c r="K95" s="1">
-        <v>13.733772999999999</v>
+        <v>12.3739063</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>97</v>
+        <v>809</v>
       </c>
       <c r="N95" t="s">
         <v>813</v>
@@ -7789,43 +8462,43 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>638</v>
+        <v>1059</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>644</v>
+        <v>1060</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>908</v>
+        <v>1061</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>364</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>640</v>
+        <v>1078</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>641</v>
+        <v>1079</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>645</v>
+        <v>1065</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>643</v>
+        <v>1080</v>
       </c>
       <c r="J96" s="2">
-        <v>51.051055699999999</v>
+        <v>50.714126700000001</v>
       </c>
       <c r="K96" s="1">
-        <v>13.733772999999999</v>
+        <v>12.496838</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>97</v>
+        <v>809</v>
       </c>
       <c r="N96" t="s">
         <v>813</v>
@@ -7836,43 +8509,43 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>646</v>
+        <v>511</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>647</v>
+        <v>512</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>648</v>
+        <v>513</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>650</v>
+        <v>515</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>651</v>
+        <v>516</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>652</v>
+        <v>517</v>
       </c>
       <c r="J97" s="2">
-        <v>51.208241200000003</v>
+        <v>51.093750200000002</v>
       </c>
       <c r="K97" s="1">
-        <v>12.3358078</v>
+        <v>13.6047394</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>936</v>
+        <v>194</v>
       </c>
       <c r="N97" t="s">
         <v>813</v>
@@ -7883,43 +8556,43 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>653</v>
+        <v>518</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>654</v>
+        <v>519</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>655</v>
+        <v>520</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>656</v>
+        <v>521</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>657</v>
+        <v>522</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>658</v>
+        <v>523</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>659</v>
+        <v>524</v>
       </c>
       <c r="J98" s="2">
-        <v>50.677227299999998</v>
+        <v>50.853269999999902</v>
       </c>
       <c r="K98" s="1">
-        <v>12.916370402982199</v>
+        <v>12.639887858797</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N98" t="s">
         <v>813</v>
@@ -7930,43 +8603,43 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>660</v>
+        <v>525</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>661</v>
+        <v>526</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>662</v>
+        <v>54</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>663</v>
+        <v>55</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>664</v>
+        <v>56</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>665</v>
+        <v>527</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>666</v>
+        <v>58</v>
       </c>
       <c r="J99" s="2">
-        <v>50.985820949999997</v>
+        <v>51.342409099999998</v>
       </c>
       <c r="K99" s="1">
-        <v>14.6612434625</v>
+        <v>12.368007700921201</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>20</v>
+        <v>809</v>
       </c>
       <c r="N99" t="s">
         <v>813</v>
@@ -7977,43 +8650,43 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>667</v>
+        <v>528</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>668</v>
+        <v>529</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
       <c r="J100" s="2">
-        <v>50.804116299999997</v>
+        <v>50.839166900000002</v>
       </c>
       <c r="K100" s="1">
-        <v>12.850775107999601</v>
+        <v>12.928299383917301</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="N100" t="s">
         <v>813</v>
@@ -8024,37 +8697,37 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>673</v>
+        <v>535</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>674</v>
+        <v>536</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>675</v>
+        <v>538</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>676</v>
+        <v>539</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>677</v>
+        <v>540</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>678</v>
+        <v>541</v>
       </c>
       <c r="J101" s="2">
-        <v>50.599602150000003</v>
+        <v>51.032170199999896</v>
       </c>
       <c r="K101" s="1">
-        <v>12.315582064661299</v>
+        <v>13.758223857120599</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>96</v>
@@ -8071,43 +8744,43 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>679</v>
+        <v>542</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>680</v>
+        <v>543</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>681</v>
+        <v>544</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>682</v>
+        <v>545</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>683</v>
+        <v>546</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>684</v>
+        <v>547</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>685</v>
+        <v>548</v>
       </c>
       <c r="J102" s="2">
-        <v>50.937102600000003</v>
+        <v>50.820391499999999</v>
       </c>
       <c r="K102" s="1">
-        <v>14.797077855568</v>
+        <v>12.8915905</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>936</v>
+        <v>97</v>
       </c>
       <c r="N102" t="s">
         <v>813</v>
@@ -8118,43 +8791,43 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>686</v>
+        <v>1081</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>687</v>
+        <v>1082</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>915</v>
+        <v>1083</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>120</v>
+        <v>1084</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>121</v>
+        <v>1085</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>122</v>
+        <v>1086</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>688</v>
+        <v>1087</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>124</v>
+        <v>1088</v>
       </c>
       <c r="J103" s="2">
-        <v>51.095299349999998</v>
+        <v>51.051236500000002</v>
       </c>
       <c r="K103" s="1">
-        <v>13.769173452932399</v>
+        <v>12.561587299999999</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>97</v>
+        <v>936</v>
       </c>
       <c r="N103" t="s">
         <v>813</v>
@@ -8165,43 +8838,43 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>689</v>
+        <v>549</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>690</v>
+        <v>550</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>691</v>
+        <v>551</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>692</v>
+        <v>552</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>693</v>
+        <v>553</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>694</v>
+        <v>554</v>
       </c>
       <c r="J104" s="2">
-        <v>50.816067699999998</v>
+        <v>51.122001599999997</v>
       </c>
       <c r="K104" s="1">
-        <v>12.926009680293101</v>
+        <v>13.762884700000001</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>809</v>
+        <v>97</v>
       </c>
       <c r="N104" t="s">
         <v>813</v>
@@ -8212,43 +8885,43 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>695</v>
+        <v>1089</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>696</v>
+        <v>1090</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>917</v>
+        <v>1091</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>697</v>
+        <v>1092</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>698</v>
+        <v>1093</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>699</v>
+        <v>1094</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>700</v>
+        <v>1095</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>701</v>
+        <v>1096</v>
       </c>
       <c r="J105" s="2">
-        <v>51.01384255</v>
+        <v>50.921602350000001</v>
       </c>
       <c r="K105" s="1">
-        <v>13.7550863987307</v>
+        <v>12.4327092</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>809</v>
+        <v>97</v>
       </c>
       <c r="N105" t="s">
         <v>813</v>
@@ -8259,43 +8932,43 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>702</v>
+        <v>1097</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>703</v>
+        <v>1098</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>918</v>
+        <v>1099</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>704</v>
+        <v>127</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>705</v>
+        <v>1100</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>706</v>
+        <v>1101</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>707</v>
+        <v>1102</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>708</v>
+        <v>1103</v>
       </c>
       <c r="J106" s="2">
-        <v>50.848278200000003</v>
+        <v>51.010864699999999</v>
       </c>
       <c r="K106" s="1">
-        <v>12.9214875</v>
+        <v>13.702504320099999</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N106" t="s">
         <v>813</v>
@@ -8306,37 +8979,37 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>709</v>
+        <v>555</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>710</v>
+        <v>556</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>711</v>
+        <v>380</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>712</v>
+        <v>557</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>713</v>
+        <v>558</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>714</v>
+        <v>559</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>715</v>
+        <v>560</v>
       </c>
       <c r="J107" s="2">
-        <v>50.7729803</v>
+        <v>50.803564299999998</v>
       </c>
       <c r="K107" s="1">
-        <v>12.6741761</v>
+        <v>12.923290099999999</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>216</v>
@@ -8353,43 +9026,43 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>716</v>
+        <v>561</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>717</v>
+        <v>562</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>718</v>
+        <v>564</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>719</v>
+        <v>565</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>720</v>
+        <v>566</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="J108" s="2">
-        <v>50.918447049999997</v>
+        <v>50.505823849999999</v>
       </c>
       <c r="K108" s="1">
-        <v>13.3410296948802</v>
+        <v>12.64320215</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N108" t="s">
         <v>813</v>
@@ -8400,43 +9073,43 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>722</v>
+        <v>1104</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>723</v>
+        <v>1105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>921</v>
+        <v>1106</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>724</v>
+        <v>1107</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>725</v>
+        <v>1108</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>726</v>
+        <v>1109</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>727</v>
+        <v>1110</v>
       </c>
       <c r="J109" s="2">
-        <v>50.918472250000001</v>
+        <v>51.02474565</v>
       </c>
       <c r="K109" s="1">
-        <v>13.3406080654746</v>
+        <v>13.7261028874633</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>937</v>
+        <v>194</v>
       </c>
       <c r="N109" t="s">
         <v>813</v>
@@ -8447,43 +9120,43 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>728</v>
+        <v>568</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>729</v>
+        <v>569</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>730</v>
+        <v>573</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="J110" s="2">
-        <v>50.839166900000002</v>
+        <v>51.308639999999997</v>
       </c>
       <c r="K110" s="1">
-        <v>12.928299383917301</v>
+        <v>14.3088628789819</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N110" t="s">
         <v>813</v>
@@ -8494,43 +9167,43 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>731</v>
+        <v>575</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>732</v>
+        <v>576</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>181</v>
+        <v>577</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>734</v>
+        <v>579</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>735</v>
+        <v>580</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>736</v>
+        <v>581</v>
       </c>
       <c r="J111" s="2">
-        <v>51.020537500000003</v>
+        <v>50.55952645</v>
       </c>
       <c r="K111" s="1">
-        <v>13.727780780684</v>
+        <v>12.7881668995014</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N111" t="s">
         <v>813</v>
@@ -8541,43 +9214,43 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>737</v>
+        <v>582</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>738</v>
+        <v>583</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>181</v>
+        <v>584</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>739</v>
+        <v>585</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>740</v>
+        <v>586</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>741</v>
+        <v>587</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>742</v>
+        <v>588</v>
       </c>
       <c r="J112" s="2">
-        <v>51.040337800000003</v>
+        <v>51.134624000000002</v>
       </c>
       <c r="K112" s="1">
-        <v>13.7159304</v>
+        <v>14.4064427970632</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>937</v>
+        <v>194</v>
       </c>
       <c r="N112" t="s">
         <v>813</v>
@@ -8588,43 +9261,43 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>743</v>
+        <v>1111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>744</v>
+        <v>1112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>925</v>
+        <v>1113</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>745</v>
+        <v>591</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>746</v>
+        <v>592</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>747</v>
+        <v>593</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>748</v>
+        <v>594</v>
       </c>
       <c r="J113" s="2">
-        <v>51.026487699999997</v>
+        <v>51.010008749999997</v>
       </c>
       <c r="K113" s="1">
-        <v>13.722570899999999</v>
+        <v>13.7008454005133</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>937</v>
+        <v>97</v>
       </c>
       <c r="N113" t="s">
         <v>813</v>
@@ -8635,43 +9308,43 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>749</v>
+        <v>589</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>750</v>
+        <v>590</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>745</v>
+        <v>591</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>746</v>
+        <v>592</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>751</v>
+        <v>593</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>748</v>
+        <v>594</v>
       </c>
       <c r="J114" s="2">
-        <v>51.026487699999997</v>
+        <v>51.010008749999997</v>
       </c>
       <c r="K114" s="1">
-        <v>13.722570899999999</v>
+        <v>13.7008454005133</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>937</v>
+        <v>97</v>
       </c>
       <c r="N114" t="s">
         <v>813</v>
@@ -8682,43 +9355,43 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>752</v>
+        <v>595</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>753</v>
+        <v>596</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>754</v>
+        <v>597</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>755</v>
+        <v>598</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>756</v>
+        <v>599</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>178</v>
+        <v>600</v>
       </c>
       <c r="J115" s="2">
-        <v>51.026839799999998</v>
+        <v>50.905501649999998</v>
       </c>
       <c r="K115" s="1">
-        <v>13.722932188807</v>
+        <v>14.833019001039</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="N115" t="s">
         <v>813</v>
@@ -8729,43 +9402,43 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>757</v>
+        <v>601</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>758</v>
+        <v>602</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>54</v>
+        <v>603</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>759</v>
+        <v>604</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>760</v>
+        <v>605</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>761</v>
+        <v>606</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>762</v>
+        <v>607</v>
       </c>
       <c r="J116" s="2">
-        <v>51.341737000000002</v>
+        <v>50.859605899999998</v>
       </c>
       <c r="K116" s="1">
-        <v>12.391173999999999</v>
+        <v>13.664528199999999</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N116" t="s">
         <v>813</v>
@@ -8776,43 +9449,43 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>763</v>
+        <v>608</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>764</v>
+        <v>609</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>765</v>
+        <v>149</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>766</v>
+        <v>150</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>767</v>
+        <v>610</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>768</v>
+        <v>152</v>
       </c>
       <c r="J117" s="2">
-        <v>51.069234700000003</v>
+        <v>50.7961271</v>
       </c>
       <c r="K117" s="1">
-        <v>13.7792388</v>
+        <v>12.917207700000001</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="N117" t="s">
         <v>813</v>
@@ -8823,43 +9496,43 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>769</v>
+        <v>611</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>770</v>
+        <v>612</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>771</v>
+        <v>613</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>772</v>
+        <v>614</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>773</v>
+        <v>615</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>774</v>
+        <v>616</v>
       </c>
       <c r="J118" s="2">
-        <v>51.044545900000003</v>
+        <v>50.727705549999897</v>
       </c>
       <c r="K118" s="1">
-        <v>13.755933893750001</v>
+        <v>12.4751950105642</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N118" t="s">
         <v>813</v>
@@ -8870,43 +9543,43 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>775</v>
+        <v>617</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>776</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>777</v>
+        <v>619</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>778</v>
+        <v>620</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>779</v>
+        <v>621</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>780</v>
+        <v>622</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>781</v>
+        <v>623</v>
       </c>
       <c r="J119" s="2">
-        <v>50.632776700000001</v>
+        <v>50.7354828</v>
       </c>
       <c r="K119" s="1">
-        <v>13.1218798808026</v>
+        <v>12.556826300000001</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>20</v>
+        <v>936</v>
       </c>
       <c r="N119" t="s">
         <v>813</v>
@@ -8917,43 +9590,43 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>782</v>
+        <v>1114</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>783</v>
+        <v>1115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>932</v>
+        <v>1116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>784</v>
+        <v>1117</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>785</v>
+        <v>1118</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>786</v>
+        <v>1119</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>787</v>
+        <v>1120</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>185</v>
+        <v>1121</v>
       </c>
       <c r="J120" s="2">
-        <v>51.040245200000001</v>
+        <v>51.097173599999998</v>
       </c>
       <c r="K120" s="1">
-        <v>13.7320768</v>
+        <v>13.6923622</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="N120" t="s">
         <v>813</v>
@@ -8964,43 +9637,43 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>788</v>
+        <v>624</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>789</v>
+        <v>625</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>790</v>
+        <v>627</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>791</v>
+        <v>628</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>792</v>
+        <v>629</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>793</v>
+        <v>630</v>
       </c>
       <c r="J121" s="2">
-        <v>51.033016199999999</v>
+        <v>51.341259700000002</v>
       </c>
       <c r="K121" s="1">
-        <v>13.7610297563259</v>
+        <v>12.383894400000001</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>194</v>
+        <v>936</v>
       </c>
       <c r="N121" t="s">
         <v>813</v>
@@ -9011,43 +9684,43 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>794</v>
+        <v>631</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>795</v>
+        <v>632</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>452</v>
+        <v>633</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>796</v>
+        <v>634</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>797</v>
+        <v>635</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>798</v>
+        <v>636</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>799</v>
+        <v>637</v>
       </c>
       <c r="J122" s="2">
-        <v>50.598962499999999</v>
+        <v>50.867490599999996</v>
       </c>
       <c r="K122" s="1">
-        <v>12.318137298651701</v>
+        <v>12.9067597</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>936</v>
+        <v>20</v>
       </c>
       <c r="N122" t="s">
         <v>813</v>
@@ -9058,48 +9731,1552 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J123" s="2">
+        <v>51.051055699999999</v>
+      </c>
+      <c r="K123" s="1">
+        <v>13.733772999999999</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N123" t="s">
+        <v>813</v>
+      </c>
+      <c r="O123" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>638</v>
+      </c>
+      <c r="B124" t="s">
+        <v>644</v>
+      </c>
+      <c r="C124" t="s">
+        <v>908</v>
+      </c>
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>640</v>
+      </c>
+      <c r="G124" t="s">
+        <v>641</v>
+      </c>
+      <c r="H124" t="s">
+        <v>645</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J124" s="3">
+        <v>51.051055699999999</v>
+      </c>
+      <c r="K124">
+        <v>13.733772999999999</v>
+      </c>
+      <c r="L124" t="s">
+        <v>96</v>
+      </c>
+      <c r="M124" t="s">
+        <v>97</v>
+      </c>
+      <c r="N124" t="s">
+        <v>813</v>
+      </c>
+      <c r="O124" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>646</v>
+      </c>
+      <c r="B125" t="s">
+        <v>647</v>
+      </c>
+      <c r="C125" t="s">
+        <v>909</v>
+      </c>
+      <c r="D125" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" t="s">
+        <v>648</v>
+      </c>
+      <c r="F125" t="s">
+        <v>649</v>
+      </c>
+      <c r="G125" t="s">
+        <v>650</v>
+      </c>
+      <c r="H125" t="s">
+        <v>651</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J125" s="3">
+        <v>51.208241200000003</v>
+      </c>
+      <c r="K125">
+        <v>12.3358078</v>
+      </c>
+      <c r="L125" t="s">
+        <v>216</v>
+      </c>
+      <c r="M125" t="s">
+        <v>936</v>
+      </c>
+      <c r="N125" t="s">
+        <v>813</v>
+      </c>
+      <c r="O125" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>653</v>
+      </c>
+      <c r="B126" t="s">
+        <v>654</v>
+      </c>
+      <c r="C126" t="s">
+        <v>910</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>655</v>
+      </c>
+      <c r="F126" t="s">
+        <v>656</v>
+      </c>
+      <c r="G126" t="s">
+        <v>657</v>
+      </c>
+      <c r="H126" t="s">
+        <v>658</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J126" s="3">
+        <v>50.677227299999998</v>
+      </c>
+      <c r="K126">
+        <v>12.916370402982199</v>
+      </c>
+      <c r="L126" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" t="s">
+        <v>20</v>
+      </c>
+      <c r="N126" t="s">
+        <v>813</v>
+      </c>
+      <c r="O126" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>660</v>
+      </c>
+      <c r="B127" t="s">
+        <v>661</v>
+      </c>
+      <c r="C127" t="s">
+        <v>911</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>662</v>
+      </c>
+      <c r="F127" t="s">
+        <v>663</v>
+      </c>
+      <c r="G127" t="s">
+        <v>664</v>
+      </c>
+      <c r="H127" t="s">
+        <v>665</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J127" s="3">
+        <v>50.985820949999997</v>
+      </c>
+      <c r="K127">
+        <v>14.6612434625</v>
+      </c>
+      <c r="L127" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" t="s">
+        <v>813</v>
+      </c>
+      <c r="O127" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>667</v>
+      </c>
+      <c r="B128" t="s">
+        <v>668</v>
+      </c>
+      <c r="C128" t="s">
+        <v>912</v>
+      </c>
+      <c r="D128" t="s">
+        <v>210</v>
+      </c>
+      <c r="E128" t="s">
+        <v>309</v>
+      </c>
+      <c r="F128" t="s">
+        <v>669</v>
+      </c>
+      <c r="G128" t="s">
+        <v>670</v>
+      </c>
+      <c r="H128" t="s">
+        <v>671</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J128" s="3">
+        <v>50.804116299999997</v>
+      </c>
+      <c r="K128">
+        <v>12.850775107999601</v>
+      </c>
+      <c r="L128" t="s">
+        <v>216</v>
+      </c>
+      <c r="M128" t="s">
+        <v>936</v>
+      </c>
+      <c r="N128" t="s">
+        <v>813</v>
+      </c>
+      <c r="O128" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>673</v>
+      </c>
+      <c r="B129" t="s">
+        <v>674</v>
+      </c>
+      <c r="C129" t="s">
+        <v>913</v>
+      </c>
+      <c r="D129" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" t="s">
+        <v>452</v>
+      </c>
+      <c r="F129" t="s">
+        <v>675</v>
+      </c>
+      <c r="G129" t="s">
+        <v>676</v>
+      </c>
+      <c r="H129" t="s">
+        <v>677</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J129" s="3">
+        <v>50.599602150000003</v>
+      </c>
+      <c r="K129">
+        <v>12.315582064661299</v>
+      </c>
+      <c r="L129" t="s">
+        <v>96</v>
+      </c>
+      <c r="M129" t="s">
+        <v>97</v>
+      </c>
+      <c r="N129" t="s">
+        <v>813</v>
+      </c>
+      <c r="O129" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>679</v>
+      </c>
+      <c r="B130" t="s">
+        <v>680</v>
+      </c>
+      <c r="C130" t="s">
+        <v>914</v>
+      </c>
+      <c r="D130" t="s">
+        <v>210</v>
+      </c>
+      <c r="E130" t="s">
+        <v>681</v>
+      </c>
+      <c r="F130" t="s">
+        <v>682</v>
+      </c>
+      <c r="G130" t="s">
+        <v>683</v>
+      </c>
+      <c r="H130" t="s">
+        <v>684</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="J130" s="3">
+        <v>50.937102600000003</v>
+      </c>
+      <c r="K130">
+        <v>14.797077855568</v>
+      </c>
+      <c r="L130" t="s">
+        <v>216</v>
+      </c>
+      <c r="M130" t="s">
+        <v>936</v>
+      </c>
+      <c r="N130" t="s">
+        <v>813</v>
+      </c>
+      <c r="O130" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>686</v>
+      </c>
+      <c r="B131" t="s">
+        <v>687</v>
+      </c>
+      <c r="C131" t="s">
+        <v>915</v>
+      </c>
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" t="s">
+        <v>121</v>
+      </c>
+      <c r="G131" t="s">
+        <v>122</v>
+      </c>
+      <c r="H131" t="s">
+        <v>688</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J131" s="3">
+        <v>51.095299349999998</v>
+      </c>
+      <c r="K131">
+        <v>13.769173452932399</v>
+      </c>
+      <c r="L131" t="s">
+        <v>96</v>
+      </c>
+      <c r="M131" t="s">
+        <v>97</v>
+      </c>
+      <c r="N131" t="s">
+        <v>813</v>
+      </c>
+      <c r="O131" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J132" s="3">
+        <v>51.047742900000003</v>
+      </c>
+      <c r="K132">
+        <v>13.292957700000001</v>
+      </c>
+      <c r="L132" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" t="s">
+        <v>20</v>
+      </c>
+      <c r="N132" t="s">
+        <v>813</v>
+      </c>
+      <c r="O132" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>689</v>
+      </c>
+      <c r="B133" t="s">
+        <v>690</v>
+      </c>
+      <c r="C133" t="s">
+        <v>916</v>
+      </c>
+      <c r="D133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>691</v>
+      </c>
+      <c r="G133" t="s">
+        <v>692</v>
+      </c>
+      <c r="H133" t="s">
+        <v>693</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="J133" s="3">
+        <v>50.816067699999998</v>
+      </c>
+      <c r="K133">
+        <v>12.926009680293101</v>
+      </c>
+      <c r="L133" t="s">
+        <v>59</v>
+      </c>
+      <c r="M133" t="s">
+        <v>809</v>
+      </c>
+      <c r="N133" t="s">
+        <v>813</v>
+      </c>
+      <c r="O133" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>695</v>
+      </c>
+      <c r="B134" t="s">
+        <v>696</v>
+      </c>
+      <c r="C134" t="s">
+        <v>917</v>
+      </c>
+      <c r="D134" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" t="s">
+        <v>697</v>
+      </c>
+      <c r="F134" t="s">
+        <v>698</v>
+      </c>
+      <c r="G134" t="s">
+        <v>699</v>
+      </c>
+      <c r="H134" t="s">
+        <v>700</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J134" s="3">
+        <v>51.01384255</v>
+      </c>
+      <c r="K134">
+        <v>13.7550863987307</v>
+      </c>
+      <c r="L134" t="s">
+        <v>59</v>
+      </c>
+      <c r="M134" t="s">
+        <v>809</v>
+      </c>
+      <c r="N134" t="s">
+        <v>813</v>
+      </c>
+      <c r="O134" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>702</v>
+      </c>
+      <c r="B135" t="s">
+        <v>703</v>
+      </c>
+      <c r="C135" t="s">
+        <v>918</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>704</v>
+      </c>
+      <c r="F135" t="s">
+        <v>705</v>
+      </c>
+      <c r="G135" t="s">
+        <v>706</v>
+      </c>
+      <c r="H135" t="s">
+        <v>707</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J135" s="3">
+        <v>50.848278200000003</v>
+      </c>
+      <c r="K135">
+        <v>12.9214875</v>
+      </c>
+      <c r="L135" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" t="s">
+        <v>20</v>
+      </c>
+      <c r="N135" t="s">
+        <v>813</v>
+      </c>
+      <c r="O135" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J136" s="3">
+        <v>51.093036849999997</v>
+      </c>
+      <c r="K136">
+        <v>14.3297979455863</v>
+      </c>
+      <c r="L136" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" t="s">
+        <v>20</v>
+      </c>
+      <c r="N136" t="s">
+        <v>813</v>
+      </c>
+      <c r="O136" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>709</v>
+      </c>
+      <c r="B137" t="s">
+        <v>710</v>
+      </c>
+      <c r="C137" t="s">
+        <v>919</v>
+      </c>
+      <c r="D137" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" t="s">
+        <v>711</v>
+      </c>
+      <c r="F137" t="s">
+        <v>712</v>
+      </c>
+      <c r="G137" t="s">
+        <v>713</v>
+      </c>
+      <c r="H137" t="s">
+        <v>714</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="J137" s="3">
+        <v>50.7729803</v>
+      </c>
+      <c r="K137">
+        <v>12.6741761</v>
+      </c>
+      <c r="L137" t="s">
+        <v>216</v>
+      </c>
+      <c r="M137" t="s">
+        <v>936</v>
+      </c>
+      <c r="N137" t="s">
+        <v>813</v>
+      </c>
+      <c r="O137" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>716</v>
+      </c>
+      <c r="B138" t="s">
+        <v>717</v>
+      </c>
+      <c r="C138" t="s">
+        <v>920</v>
+      </c>
+      <c r="D138" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" t="s">
+        <v>718</v>
+      </c>
+      <c r="G138" t="s">
+        <v>719</v>
+      </c>
+      <c r="H138" t="s">
+        <v>720</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="J138" s="3">
+        <v>50.918447049999997</v>
+      </c>
+      <c r="K138">
+        <v>13.3410296948802</v>
+      </c>
+      <c r="L138" t="s">
+        <v>29</v>
+      </c>
+      <c r="M138" t="s">
+        <v>937</v>
+      </c>
+      <c r="N138" t="s">
+        <v>813</v>
+      </c>
+      <c r="O138" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>722</v>
+      </c>
+      <c r="B139" t="s">
+        <v>723</v>
+      </c>
+      <c r="C139" t="s">
+        <v>921</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>91</v>
+      </c>
+      <c r="F139" t="s">
+        <v>724</v>
+      </c>
+      <c r="G139" t="s">
+        <v>725</v>
+      </c>
+      <c r="H139" t="s">
+        <v>726</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J139" s="3">
+        <v>50.918472250000001</v>
+      </c>
+      <c r="K139">
+        <v>13.3406080654746</v>
+      </c>
+      <c r="L139" t="s">
+        <v>29</v>
+      </c>
+      <c r="M139" t="s">
+        <v>937</v>
+      </c>
+      <c r="N139" t="s">
+        <v>813</v>
+      </c>
+      <c r="O139" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>728</v>
+      </c>
+      <c r="B140" t="s">
+        <v>729</v>
+      </c>
+      <c r="C140" t="s">
+        <v>922</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>530</v>
+      </c>
+      <c r="F140" t="s">
+        <v>531</v>
+      </c>
+      <c r="G140" t="s">
+        <v>532</v>
+      </c>
+      <c r="H140" t="s">
+        <v>730</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J140" s="3">
+        <v>50.839166900000002</v>
+      </c>
+      <c r="K140">
+        <v>12.928299383917301</v>
+      </c>
+      <c r="L140" t="s">
+        <v>29</v>
+      </c>
+      <c r="M140" t="s">
+        <v>937</v>
+      </c>
+      <c r="N140" t="s">
+        <v>813</v>
+      </c>
+      <c r="O140" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>731</v>
+      </c>
+      <c r="B141" t="s">
+        <v>732</v>
+      </c>
+      <c r="C141" t="s">
+        <v>923</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s">
+        <v>181</v>
+      </c>
+      <c r="F141" t="s">
+        <v>733</v>
+      </c>
+      <c r="G141" t="s">
+        <v>734</v>
+      </c>
+      <c r="H141" t="s">
+        <v>735</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="J141" s="3">
+        <v>51.020537500000003</v>
+      </c>
+      <c r="K141">
+        <v>13.727780780684</v>
+      </c>
+      <c r="L141" t="s">
+        <v>29</v>
+      </c>
+      <c r="M141" t="s">
+        <v>937</v>
+      </c>
+      <c r="N141" t="s">
+        <v>813</v>
+      </c>
+      <c r="O141" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>737</v>
+      </c>
+      <c r="B142" t="s">
+        <v>738</v>
+      </c>
+      <c r="C142" t="s">
+        <v>924</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" t="s">
+        <v>181</v>
+      </c>
+      <c r="F142" t="s">
+        <v>739</v>
+      </c>
+      <c r="G142" t="s">
+        <v>740</v>
+      </c>
+      <c r="H142" t="s">
+        <v>741</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J142" s="3">
+        <v>51.040337800000003</v>
+      </c>
+      <c r="K142">
+        <v>13.7159304</v>
+      </c>
+      <c r="L142" t="s">
+        <v>29</v>
+      </c>
+      <c r="M142" t="s">
+        <v>937</v>
+      </c>
+      <c r="N142" t="s">
+        <v>813</v>
+      </c>
+      <c r="O142" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>743</v>
+      </c>
+      <c r="B143" t="s">
+        <v>744</v>
+      </c>
+      <c r="C143" t="s">
+        <v>925</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" t="s">
+        <v>141</v>
+      </c>
+      <c r="F143" t="s">
+        <v>745</v>
+      </c>
+      <c r="G143" t="s">
+        <v>746</v>
+      </c>
+      <c r="H143" t="s">
+        <v>747</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J143" s="3">
+        <v>51.026487699999997</v>
+      </c>
+      <c r="K143">
+        <v>13.722570899999999</v>
+      </c>
+      <c r="L143" t="s">
+        <v>29</v>
+      </c>
+      <c r="M143" t="s">
+        <v>937</v>
+      </c>
+      <c r="N143" t="s">
+        <v>813</v>
+      </c>
+      <c r="O143" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>749</v>
+      </c>
+      <c r="B144" t="s">
+        <v>750</v>
+      </c>
+      <c r="C144" t="s">
+        <v>926</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" t="s">
+        <v>141</v>
+      </c>
+      <c r="F144" t="s">
+        <v>745</v>
+      </c>
+      <c r="G144" t="s">
+        <v>746</v>
+      </c>
+      <c r="H144" t="s">
+        <v>751</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J144" s="3">
+        <v>51.026487699999997</v>
+      </c>
+      <c r="K144">
+        <v>13.722570899999999</v>
+      </c>
+      <c r="L144" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" t="s">
+        <v>937</v>
+      </c>
+      <c r="N144" t="s">
+        <v>813</v>
+      </c>
+      <c r="O144" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>752</v>
+      </c>
+      <c r="B145" t="s">
+        <v>753</v>
+      </c>
+      <c r="C145" t="s">
+        <v>927</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" t="s">
+        <v>181</v>
+      </c>
+      <c r="F145" t="s">
+        <v>754</v>
+      </c>
+      <c r="G145" t="s">
+        <v>755</v>
+      </c>
+      <c r="H145" t="s">
+        <v>756</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J145" s="3">
+        <v>51.026839799999998</v>
+      </c>
+      <c r="K145">
+        <v>13.722932188807</v>
+      </c>
+      <c r="L145" t="s">
+        <v>29</v>
+      </c>
+      <c r="M145" t="s">
+        <v>937</v>
+      </c>
+      <c r="N145" t="s">
+        <v>813</v>
+      </c>
+      <c r="O145" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>757</v>
+      </c>
+      <c r="B146" t="s">
+        <v>758</v>
+      </c>
+      <c r="C146" t="s">
+        <v>928</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146" t="s">
+        <v>759</v>
+      </c>
+      <c r="G146" t="s">
+        <v>760</v>
+      </c>
+      <c r="H146" t="s">
+        <v>761</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J146" s="3">
+        <v>51.341737000000002</v>
+      </c>
+      <c r="K146">
+        <v>12.391173999999999</v>
+      </c>
+      <c r="L146" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" t="s">
+        <v>937</v>
+      </c>
+      <c r="N146" t="s">
+        <v>813</v>
+      </c>
+      <c r="O146" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>763</v>
+      </c>
+      <c r="B147" t="s">
+        <v>764</v>
+      </c>
+      <c r="C147" t="s">
+        <v>929</v>
+      </c>
+      <c r="D147" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" t="s">
+        <v>765</v>
+      </c>
+      <c r="G147" t="s">
+        <v>766</v>
+      </c>
+      <c r="H147" t="s">
+        <v>767</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="J147" s="3">
+        <v>51.069234700000003</v>
+      </c>
+      <c r="K147">
+        <v>13.7792388</v>
+      </c>
+      <c r="L147" t="s">
+        <v>59</v>
+      </c>
+      <c r="M147" t="s">
+        <v>809</v>
+      </c>
+      <c r="N147" t="s">
+        <v>813</v>
+      </c>
+      <c r="O147" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J148" s="3">
+        <v>51.282669900000002</v>
+      </c>
+      <c r="K148">
+        <v>14.0910819886948</v>
+      </c>
+      <c r="L148" t="s">
+        <v>193</v>
+      </c>
+      <c r="M148" t="s">
+        <v>194</v>
+      </c>
+      <c r="N148" t="s">
+        <v>813</v>
+      </c>
+      <c r="O148" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D149" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J149" s="3">
+        <v>50.82697005</v>
+      </c>
+      <c r="K149">
+        <v>12.9155497022715</v>
+      </c>
+      <c r="L149" t="s">
+        <v>59</v>
+      </c>
+      <c r="M149" t="s">
+        <v>809</v>
+      </c>
+      <c r="N149" t="s">
+        <v>813</v>
+      </c>
+      <c r="O149" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>769</v>
+      </c>
+      <c r="B150" t="s">
+        <v>770</v>
+      </c>
+      <c r="C150" t="s">
+        <v>930</v>
+      </c>
+      <c r="D150" t="s">
+        <v>210</v>
+      </c>
+      <c r="E150" t="s">
+        <v>181</v>
+      </c>
+      <c r="F150" t="s">
+        <v>771</v>
+      </c>
+      <c r="G150" t="s">
+        <v>772</v>
+      </c>
+      <c r="H150" t="s">
+        <v>773</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="J150" s="3">
+        <v>51.044545900000003</v>
+      </c>
+      <c r="K150">
+        <v>13.755933893750001</v>
+      </c>
+      <c r="L150" t="s">
+        <v>216</v>
+      </c>
+      <c r="M150" t="s">
+        <v>936</v>
+      </c>
+      <c r="N150" t="s">
+        <v>813</v>
+      </c>
+      <c r="O150" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>775</v>
+      </c>
+      <c r="B151" t="s">
+        <v>776</v>
+      </c>
+      <c r="C151" t="s">
+        <v>931</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>777</v>
+      </c>
+      <c r="F151" t="s">
+        <v>778</v>
+      </c>
+      <c r="G151" t="s">
+        <v>779</v>
+      </c>
+      <c r="H151" t="s">
+        <v>780</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="J151" s="3">
+        <v>50.632776700000001</v>
+      </c>
+      <c r="K151">
+        <v>13.1218798808026</v>
+      </c>
+      <c r="L151" t="s">
+        <v>19</v>
+      </c>
+      <c r="M151" t="s">
+        <v>20</v>
+      </c>
+      <c r="N151" t="s">
+        <v>813</v>
+      </c>
+      <c r="O151" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>782</v>
+      </c>
+      <c r="B152" t="s">
+        <v>783</v>
+      </c>
+      <c r="C152" t="s">
+        <v>932</v>
+      </c>
+      <c r="D152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" t="s">
+        <v>784</v>
+      </c>
+      <c r="F152" t="s">
+        <v>785</v>
+      </c>
+      <c r="G152" t="s">
+        <v>786</v>
+      </c>
+      <c r="H152" t="s">
+        <v>787</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J152" s="3">
+        <v>51.040245200000001</v>
+      </c>
+      <c r="K152">
+        <v>13.7320768</v>
+      </c>
+      <c r="L152" t="s">
+        <v>96</v>
+      </c>
+      <c r="M152" t="s">
+        <v>97</v>
+      </c>
+      <c r="N152" t="s">
+        <v>813</v>
+      </c>
+      <c r="O152" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>788</v>
+      </c>
+      <c r="B153" t="s">
+        <v>789</v>
+      </c>
+      <c r="C153" t="s">
+        <v>933</v>
+      </c>
+      <c r="D153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" t="s">
+        <v>537</v>
+      </c>
+      <c r="F153" t="s">
+        <v>790</v>
+      </c>
+      <c r="G153" t="s">
+        <v>791</v>
+      </c>
+      <c r="H153" t="s">
+        <v>792</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="J153" s="3">
+        <v>51.033016199999999</v>
+      </c>
+      <c r="K153">
+        <v>13.7610297563259</v>
+      </c>
+      <c r="L153" t="s">
+        <v>193</v>
+      </c>
+      <c r="M153" t="s">
+        <v>194</v>
+      </c>
+      <c r="N153" t="s">
+        <v>813</v>
+      </c>
+      <c r="O153" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>794</v>
+      </c>
+      <c r="B154" t="s">
+        <v>795</v>
+      </c>
+      <c r="C154" t="s">
+        <v>934</v>
+      </c>
+      <c r="D154" t="s">
+        <v>210</v>
+      </c>
+      <c r="E154" t="s">
+        <v>452</v>
+      </c>
+      <c r="F154" t="s">
+        <v>796</v>
+      </c>
+      <c r="G154" t="s">
+        <v>797</v>
+      </c>
+      <c r="H154" t="s">
+        <v>798</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J154" s="3">
+        <v>50.598962499999999</v>
+      </c>
+      <c r="K154">
+        <v>12.318137298651701</v>
+      </c>
+      <c r="L154" t="s">
+        <v>216</v>
+      </c>
+      <c r="M154" t="s">
+        <v>936</v>
+      </c>
+      <c r="N154" t="s">
+        <v>813</v>
+      </c>
+      <c r="O154" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>800</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B155" t="s">
         <v>801</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C155" t="s">
         <v>935</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D155" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E155" t="s">
         <v>127</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F155" t="s">
         <v>802</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G155" t="s">
         <v>803</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H155" t="s">
         <v>804</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I155" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J155" s="3">
         <v>51.010820799999998</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K155">
         <v>13.705758299999999</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="L155" t="s">
         <v>19</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="M155" t="s">
         <v>20</v>
       </c>
-      <c r="N123" t="s">
-        <v>813</v>
-      </c>
-      <c r="O123" t="s">
+      <c r="N155" t="s">
+        <v>813</v>
+      </c>
+      <c r="O155" t="s">
         <v>814</v>
       </c>
     </row>
